--- a/Project Evaluation Python.xlsx
+++ b/Project Evaluation Python.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t xml:space="preserve">IT Project</t>
   </si>
@@ -70,16 +70,31 @@
     <t xml:space="preserve">Data Collection</t>
   </si>
   <si>
+    <t xml:space="preserve">Scrape/download posts (e.g., Trump) with timestamp+text+URL and save immutable raw file. Handles basic rate limits and skips duplicates.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Filtering &amp; sentiment</t>
   </si>
   <si>
+    <t xml:space="preserve">Keyword filter to keep finance-relevant posts; add a simple sentiment score (VADER). Persist cleaned file.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Market data &amp; returns</t>
   </si>
   <si>
+    <t xml:space="preserve">Fetch benchmark + selected symbols with yfinance, compute daily returns, handle missing days, store tidy table.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Event windows &amp; CAR</t>
   </si>
   <si>
+    <t xml:space="preserve">Align posts to trading days, build estimation window, compute AR and CAR (market model) for a basic −1,+1-1,+1−1,+1 window.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Outputs &amp; reproducibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One CLI command to run end-to-end, config file for parameters, and a brief report (print JSON or table) with mean CAR and a t-test.</t>
   </si>
   <si>
     <t xml:space="preserve">Total Points Functionalities</t>
@@ -247,88 +262,96 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -523,369 +546,379 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="43.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="43.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="9" t="n">
         <v>45944</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="9" t="n">
         <f aca="false">A6+7</f>
         <v>45951</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="9" t="n">
         <f aca="false">A7+7</f>
         <v>45958</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="9" t="n">
         <v>45986</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+      <c r="A10" s="9" t="n">
         <f aca="false">A9+7</f>
         <v>45993</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+      <c r="A11" s="9" t="n">
         <v>46028</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+      <c r="A12" s="9" t="n">
         <f aca="false">A11+7</f>
         <v>46035</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="9" t="n">
         <f aca="false">A12+7</f>
         <v>46042</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="16" t="n">
+      <c r="B16" s="17" t="n">
         <f aca="false">SUM(B6:B13)</f>
         <v>24</v>
       </c>
-      <c r="C16" s="16" t="n">
+      <c r="C16" s="17" t="n">
         <f aca="false">SUM(C4:C11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+    <row r="20" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="9" t="n">
+      <c r="C21" s="10"/>
+      <c r="D21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="9" t="n">
+      <c r="C22" s="10"/>
+      <c r="D22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="9" t="n">
+      <c r="C23" s="10"/>
+      <c r="D23" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="18" t="n">
+      <c r="A25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="20" t="n">
         <v>50</v>
       </c>
-      <c r="C25" s="18" t="n">
+      <c r="C25" s="20" t="n">
         <f aca="false">SUM(C20:C24)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>21</v>
+      <c r="A27" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="28.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="9" t="n">
+      <c r="A29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="9" t="n">
+      <c r="A30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="9" t="n">
+      <c r="A31" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="18" t="n">
+      <c r="A32" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="20" t="n">
         <f aca="false">SUM(B29:B31)</f>
         <v>30</v>
       </c>
-      <c r="C32" s="18" t="n">
+      <c r="C32" s="20" t="n">
         <f aca="false">SUM(C29:C31)</f>
         <v>0</v>
       </c>
-      <c r="D32" s="9"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="16" t="n">
+      <c r="A34" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="17" t="n">
         <f aca="false">B16+B32+B25</f>
         <v>104</v>
       </c>
-      <c r="C34" s="16" t="n">
+      <c r="C34" s="17" t="n">
         <f aca="false">C16+C32</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="20" t="n">
+      <c r="A36" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="22" t="n">
         <f aca="false">MIN(6,C34/(B34)*5+1)</f>
         <v>1</v>
       </c>
